--- a/数据整理/stocks/A股/深证主板/000591-太阳能.xlsx
+++ b/数据整理/stocks/A股/深证主板/000591-太阳能.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.77</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>97.41</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.21</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>159990</t>
+          <t>161224</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华巨潮小盘价值ETF</t>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>97.96</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161224</t>
+          <t>159990</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+          <t>银华巨潮小盘价值ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000591-太阳能.xlsx
+++ b/数据整理/stocks/A股/深证主板/000591-太阳能.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012079</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银新能源精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3377</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012148</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2804</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012149</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银产业趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0549</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1635</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011807</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011808</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000591-太阳能.xlsx
+++ b/数据整理/stocks/A股/深证主板/000591-太阳能.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1144,4 +1145,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000591-太阳能.xlsx
+++ b/数据整理/stocks/A股/深证主板/000591-太阳能.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1153,7 +1154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1164,17 +1165,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1184,14 +1205,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>6.13</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -1200,14 +1295,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="4">
@@ -1216,13 +1311,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000591-太阳能.xlsx
+++ b/数据整理/stocks/A股/深证主板/000591-太阳能.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1248,7 +1249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,17 +1260,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1279,14 +1300,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
+          <t>159611</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指电力ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3800</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1295,14 +1338,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.13</v>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1311,14 +1376,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>010487</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银顺盈回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>38.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="5">
@@ -1327,13 +1498,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000591-太阳能.xlsx
+++ b/数据整理/stocks/A股/深证主板/000591-太阳能.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1419,7 +1420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1430,17 +1431,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1450,14 +1471,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.4</v>
+          <t>159611</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指电力ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3269</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1466,14 +1509,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02</v>
+          <t>159625</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实国证绿色电力ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1482,14 +1547,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>6.13</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5">
@@ -1498,14 +1669,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="6">
@@ -1514,13 +1685,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000591-太阳能.xlsx
+++ b/数据整理/stocks/A股/深证主板/000591-太阳能.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,129 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>164905</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银国证新能源指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.01</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0607</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>3</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>159990</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银华巨潮小盘价值ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>97.41</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -588,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -639,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161224</t>
+          <t>159611</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+          <t>广发中证全指电力ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>12.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>99.39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0493</t>
+          <t>0.3269</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +677,74 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>159625</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实国证绿色电力ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>159990</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>银华巨潮小盘价值ETF</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>97.96</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0100</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -720,7 +758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -741,7 +779,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -771,32 +809,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012079</t>
+          <t>159611</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>信达澳银新能源精选混合型证券投资基金</t>
+          <t>广发中证全指电力ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>48.60</t>
+          <t>13.38</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>99.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.3377</t>
+          <t>0.3800</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -809,32 +847,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012148</t>
+          <t>159990</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国投瑞银产业趋势混合型证券投资基金A</t>
+          <t>银华巨潮小盘价值ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>55.62</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>96.39</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.2804</t>
+          <t>0.0132</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -847,302 +885,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012149</t>
+          <t>010487</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国投瑞银产业趋势混合型证券投资基金C</t>
+          <t>中银顺盈回报一年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25.73</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>38.83</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.0549</t>
+          <t>0.0117</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005412</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>金信民长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>86.39</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.90</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1635</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005413</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>金信民长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.39</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.90</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0945</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000739</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>平安新鑫先锋混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>75.63</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0712</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011807</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>平安研究精选混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>75.66</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0606</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001515</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>平安新鑫先锋混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>75.63</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0295</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>011808</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>平安研究精选混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>75.66</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0231</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>159990</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>银华巨潮小盘价值ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>96.64</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0191</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1250,7 +1022,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1271,7 +1043,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1301,32 +1073,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>159611</t>
+          <t>012079</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发中证全指电力ETF</t>
+          <t>信达澳银新能源精选混合型证券投资基金</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.38</t>
+          <t>48.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.14</t>
+          <t>94.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3800</t>
+          <t>2.3377</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1339,32 +1111,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>159990</t>
+          <t>012148</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银华巨潮小盘价值ETF</t>
+          <t>国投瑞银产业趋势混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>55.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>96.39</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0132</t>
+          <t>2.2804</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1377,36 +1149,302 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010487</t>
+          <t>012149</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中银顺盈回报一年持有期混合</t>
+          <t>国投瑞银产业趋势混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>25.73</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>38.83</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0117</t>
+          <t>1.0549</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1635</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011807</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011808</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>平安研究精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1420,7 +1458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1441,7 +1479,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1471,36 +1509,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>159611</t>
+          <t>161224</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发中证全指电力ETF</t>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.29</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.39</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3269</t>
+          <t>0.0493</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1509,74 +1547,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>159625</t>
+          <t>159990</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实国证绿色电力ETF</t>
+          <t>银华巨潮小盘价值ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.77</t>
+          <t>97.96</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0853</t>
+          <t>0.0100</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>159990</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银华巨潮小盘价值ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>96.56</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0109</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1590,128 +1590,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>164905</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银国证新能源指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.42</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.13</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.07000000000000001</v>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000591-太阳能.xlsx
+++ b/数据整理/stocks/A股/深证主板/000591-太阳能.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.42</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>6.13</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
@@ -588,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>159611</t>
+          <t>010695</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发中证全指电力ETF</t>
+          <t>华夏磐益一年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.29</t>
+          <t>15.90</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.39</t>
+          <t>99.95</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3269</t>
+          <t>0.7091</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>159625</t>
+          <t>159611</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实国证绿色电力ETF</t>
+          <t>广发中证全指电力ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>16.62</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.77</t>
+          <t>99.58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0853</t>
+          <t>0.4255</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -715,36 +732,150 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>159990</t>
+          <t>159625</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银华巨潮小盘价值ETF</t>
+          <t>嘉实国证绿色电力ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>96.56</t>
+          <t>98.77</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0109</t>
+          <t>0.1013</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>561700</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>561560</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>562350</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -819,26 +950,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.38</t>
+          <t>12.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.14</t>
+          <t>99.39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3800</t>
+          <t>0.3269</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -847,36 +978,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>159990</t>
+          <t>159625</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银华巨潮小盘价值ETF</t>
+          <t>嘉实国证绿色电力ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>96.39</t>
+          <t>98.77</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0132</t>
+          <t>0.0853</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -885,32 +1016,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010487</t>
+          <t>159990</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中银顺盈回报一年持有期混合</t>
+          <t>银华巨潮小盘价值ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>38.83</t>
+          <t>96.56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0117</t>
+          <t>0.0109</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -923,6 +1054,176 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159611</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指电力ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3800</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010487</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银顺盈回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>38.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1016,7 +1317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1452,7 +1753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1584,7 +1885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000591-太阳能.xlsx
+++ b/数据整理/stocks/A股/深证主板/000591-太阳能.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.42</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>6.13</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
@@ -600,6 +617,592 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010695</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏磐益一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7855</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159611</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指电力ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4066</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159625</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实国证绿色电力ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001339</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴银鼎新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>561700</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>561560</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010124</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006738</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银添慧债券A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011800</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010125</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>562350</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华中证全指电力公用事业ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006739</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银添慧债券C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015158</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -876,176 +1479,6 @@
       </c>
       <c r="H7" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>159611</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发中证全指电力ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.29</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.39</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3269</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>159625</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实国证绿色电力ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>98.77</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0853</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>159990</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银华巨潮小盘价值ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>96.56</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0109</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1120,26 +1553,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.38</t>
+          <t>12.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.14</t>
+          <t>99.39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3800</t>
+          <t>0.3269</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1148,36 +1581,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>159990</t>
+          <t>159625</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银华巨潮小盘价值ETF</t>
+          <t>嘉实国证绿色电力ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>96.39</t>
+          <t>98.77</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0132</t>
+          <t>0.0853</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1186,32 +1619,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010487</t>
+          <t>159990</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中银顺盈回报一年持有期混合</t>
+          <t>银华巨潮小盘价值ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>38.83</t>
+          <t>96.56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0117</t>
+          <t>0.0109</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1224,6 +1657,176 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159611</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指电力ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3800</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010487</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银顺盈回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>38.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1317,7 +1920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1753,7 +2356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1885,7 +2488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
